--- a/Client/Luban/Datas/base_1.xlsx
+++ b/Client/Luban/Datas/base_1.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
